--- a/thai_food_processed.xlsx
+++ b/thai_food_processed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28723"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\SG2PEPF0010386E\EXCELCNV\630200c5-94b8-48a9-b879-b27e426b0c81\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0147D987-FAEA-4499-BF53-1422DEEB2913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A53072-6397-4DA8-AB3E-3A7B0D0D8FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{70CECD45-FA34-4591-8744-8045D73AD86D}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>text_ingradiant</t>
-  </si>
-  <si>
-    <t>food_method</t>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>method</t>
   </si>
   <si>
     <t>กุ้งทาพริกไทยกระเทียม</t>
@@ -3718,7 +3718,7 @@
   <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
